--- a/_db/IMSA_DB.xlsx
+++ b/_db/IMSA_DB.xlsx
@@ -15394,7 +15394,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15711,8 +15711,8 @@
   <dimension ref="A1:J2659"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A1671" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1784" sqref="A1784"/>
+      <pane ySplit="7" topLeftCell="A1141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1156" sqref="A1156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.05"/>
@@ -15738,7 +15738,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="1"/>
       <c r="G1" s="10">
-        <v>45932</v>
+        <v>45936</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -24838,8 +24838,8 @@
       <c r="G298" s="9">
         <v>12600</v>
       </c>
-      <c r="H298" s="6" t="s">
-        <v>45</v>
+      <c r="H298" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J298" s="9">
         <f t="shared" si="11"/>
@@ -44055,8 +44055,8 @@
       <c r="G918" s="9">
         <v>944944</v>
       </c>
-      <c r="H918" s="6" t="s">
-        <v>45</v>
+      <c r="H918" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J918" s="9">
         <f t="shared" si="31"/>
@@ -44086,8 +44086,8 @@
       <c r="G919" s="9">
         <v>84756</v>
       </c>
-      <c r="H919" s="5" t="s">
-        <v>5080</v>
+      <c r="H919" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J919" s="9">
         <f t="shared" si="31"/>
@@ -44117,8 +44117,8 @@
       <c r="G920" s="9">
         <v>944944</v>
       </c>
-      <c r="H920" s="6" t="s">
-        <v>45</v>
+      <c r="H920" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J920" s="9">
         <f t="shared" si="31"/>

--- a/_db/IMSA_DB.xlsx
+++ b/_db/IMSA_DB.xlsx
@@ -15394,7 +15394,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15710,9 +15710,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2659"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A1141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1156" sqref="A1156"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A1075" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.05"/>
@@ -15738,7 +15738,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="1"/>
       <c r="G1" s="10">
-        <v>45936</v>
+        <v>45937</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -49217,8 +49217,8 @@
       <c r="G1085" s="9">
         <v>64400</v>
       </c>
-      <c r="H1085" s="6" t="s">
-        <v>45</v>
+      <c r="H1085" s="5" t="s">
+        <v>5080</v>
       </c>
       <c r="J1085" s="9">
         <f t="shared" si="35"/>
@@ -49279,8 +49279,8 @@
       <c r="G1087" s="9">
         <v>64400</v>
       </c>
-      <c r="H1087" s="5" t="s">
-        <v>5080</v>
+      <c r="H1087" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J1087" s="9">
         <f t="shared" si="35"/>
